--- a/저장된 관계 요약 및 관리.xlsx
+++ b/저장된 관계 요약 및 관리.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,102 +436,72 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>107272양세이</t>
+          <t>108302김민지</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>107172양세이</t>
+          <t>101032김민지</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>107282김보미</t>
+          <t>105072김혜원</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>107182김보미</t>
+          <t>101042김혜원</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>107292민예림</t>
+          <t>102261임승민</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>107192민예림</t>
+          <t>109291임승민</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>107302이새빛</t>
+          <t>106102정유빈</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>107202이새빛</t>
+          <t>104112정유빈</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>107312최담희</t>
+          <t>106032김도연</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>107212최담희</t>
+          <t>104161김도연</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>107322한승아</t>
+          <t>110082박지인</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>107222한승아</t>
+          <t>105092박지인</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>107332노태희</t>
+          <t>106291최서현</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>107232노태희</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>107342이재연</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>107242이재연</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>107352전시은</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>107252전시은</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>107362홍은서</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>107262홍은서</t>
+          <t>108291최서현</t>
         </is>
       </c>
     </row>
@@ -578,24 +548,6 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -640,24 +592,6 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -702,24 +636,6 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -764,24 +680,6 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -826,24 +724,6 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -888,24 +768,6 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -950,24 +812,6 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1012,24 +856,6 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1074,24 +900,6 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1136,24 +944,6 @@
       <c r="N11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1198,24 +988,6 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1260,24 +1032,6 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1322,24 +1076,6 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1382,396 +1118,6 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
         <v>-1</v>
       </c>
     </row>
